--- a/campionato/squadre/ternana/cicerelli/cicerelli.xlsx
+++ b/campionato/squadre/ternana/cicerelli/cicerelli.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reus3111/Clip_Pianese/sito_web/campionato/squadre/ternana/cicerelli/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB11AC8D-8940-CD43-9C04-1CFB6898FCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Partita</t>
   </si>
@@ -89,13 +95,19 @@
   </si>
   <si>
     <t>ternana</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3HH4eDoTOQI&amp;list=PLD64-55Vi5w6eZyWYB7T4AWb_vFpCzxOS&amp;index=5</t>
+  </si>
+  <si>
+    <t>Legnago-Ternana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,18 +178,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -215,7 +235,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -249,6 +269,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -283,9 +304,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -458,14 +480,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,27 +518,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -523,27 +547,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>8</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -552,12 +576,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -566,13 +590,13 @@
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>8</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
@@ -581,12 +605,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -595,27 +619,57 @@
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
       </c>
       <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>8.6</v>
+      </c>
+      <c r="G6">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E2" r:id="rId5" xr:uid="{FAA91094-7423-604A-8207-B75AA453A648}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
